--- a/DocxTemplate/XLSX_TO_PRINT/table2.xlsx
+++ b/DocxTemplate/XLSX_TO_PRINT/table2.xlsx
@@ -638,13 +638,25 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1256,7 +1268,7 @@
     <col width="22.5714285714286" customWidth="1" style="1" min="1" max="3"/>
     <col width="16" customWidth="1" style="1" min="4" max="4"/>
     <col width="16.8571428571429" customWidth="1" style="1" min="5" max="5"/>
-    <col width="84.28571428571431" customWidth="1" style="1" min="6" max="6"/>
+    <col width="40" customWidth="1" style="1" min="6" max="6"/>
     <col width="22.5714285714286" customWidth="1" style="1" min="7" max="7"/>
     <col width="17.1428571428571" customWidth="1" style="1" min="8" max="8"/>
     <col width="22.5714285714286" customWidth="1" style="1" min="9" max="11"/>
@@ -1265,32 +1277,32 @@
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customHeight="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Тип договора</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>Поставщик</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>Юридический адрес</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>Номер договора</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>Сумма договора</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>Комментарии</t>
         </is>
@@ -1319,8 +1331,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">16500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
-</t>
+          <t>16500.00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1353,8 +1364,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">96500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
-</t>
+          <t>96500.00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -1387,8 +1397,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">196500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
-</t>
+          <t>196500.50</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -1402,7 +1411,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>219861000.0</t>
+          <t>219861000.5</t>
         </is>
       </c>
     </row>
